--- a/Beam/RCC Beam Design.xlsx
+++ b/Beam/RCC Beam Design.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1e5eeb90a98379ad/Sri/M. Tech/Design Studio/RC Building/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srima\Proton Drive\Srimaan\My files\Code\GitHub Repos\RCC_Designs_Excel\Beam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="505" documentId="11_F25DC773A252ABDACC1048E829984C465ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{777BFA02-6626-4287-9934-E1CA5FDF9293}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547EAB6E-4BEF-42FF-B645-EB698ED01F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Misc" sheetId="2" r:id="rId2"/>
+    <sheet name="Misc" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -682,6 +682,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -713,18 +725,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1332,10 +1332,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1351,14 +1352,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="F1" s="31" t="s">
+      <c r="B1" s="35"/>
+      <c r="F1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="31"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1414,10 +1415,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="45"/>
+      <c r="B11" s="34"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -1428,10 +1429,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="41"/>
+      <c r="B14" s="45"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
@@ -1487,10 +1488,10 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="36"/>
+      <c r="B24" s="40"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
@@ -1521,10 +1522,10 @@
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="36"/>
+      <c r="B29" s="40"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
@@ -1543,13 +1544,13 @@
         <f>(0.36*B4*B12*B30)/(0.87*B5)</f>
         <v>1367.0564465204541</v>
       </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="39" t="s">
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G31" s="39"/>
+      <c r="G31" s="43"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32"/>
@@ -1573,10 +1574,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="33"/>
+      <c r="B34" s="37"/>
       <c r="F34" s="1" t="s">
         <v>30</v>
       </c>
@@ -1661,24 +1662,24 @@
       <c r="B42" s="28"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="37" t="str">
+      <c r="A43" s="41" t="str">
         <f>IF(B41&gt;=100, "Section is not Under Reinforced, Increase the Dimensions", "Section is Under Reinforced")</f>
         <v>Section is Under Reinforced</v>
       </c>
-      <c r="B43" s="38"/>
+      <c r="B43" s="42"/>
     </row>
     <row r="46" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="43"/>
+      <c r="B46" s="32"/>
     </row>
     <row r="47" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B48" s="34"/>
+      <c r="B48" s="38"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
@@ -1758,10 +1759,10 @@
       <c r="B60"/>
     </row>
     <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="32" t="s">
+      <c r="A61" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="33"/>
+      <c r="B61" s="37"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
@@ -1840,10 +1841,10 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="31" t="s">
+      <c r="A75" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B75" s="31"/>
+      <c r="B75" s="35"/>
     </row>
     <row r="76" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1902,11 +1903,11 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="42" t="str">
+      <c r="A86" s="31" t="str">
         <f>IF(G3&lt;B84, "Shear Reinforcement is Not Required", "Design Shear Reinforcement")</f>
         <v>Design Shear Reinforcement</v>
       </c>
-      <c r="B86" s="42"/>
+      <c r="B86" s="31"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
@@ -1965,11 +1966,11 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="42" t="str">
+      <c r="A96" s="31" t="str">
         <f>IF(B94&gt;=B95, "Design SF in Shear Reinforcement is OK", "Design SF less than Min SF, Hence Considering the MIn SF value for Design")</f>
         <v>Design SF in Shear Reinforcement is OK</v>
       </c>
-      <c r="B96" s="42"/>
+      <c r="B96" s="31"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97"/>
@@ -1987,11 +1988,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="A75:B75"/>
@@ -2003,6 +1999,11 @@
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <conditionalFormatting sqref="A43:B43">
     <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
@@ -2125,6 +2126,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98EB7232-E3E3-4F18-B84D-4BD7A7F49AA0}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
